--- a/作業工程.xlsx
+++ b/作業工程.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milla\Documents\GC1\kozinseisaku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milla\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5592"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>作業工程</t>
     <rPh sb="0" eb="4">
@@ -33,12 +33,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>プログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基底クラスの作成</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>作業時間</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -53,35 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キャラクター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームオブジェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基底クラスの作成</t>
-    <rPh sb="0" eb="2">
-      <t>キテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>共通</t>
-    <rPh sb="0" eb="2">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャラクタークラスの作成</t>
     <rPh sb="10" eb="12">
       <t>サクセイ</t>
@@ -103,6 +100,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃　通常攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ツウジョウコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　ジャンプ攻撃</t>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹き飛び</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>死亡</t>
     <rPh sb="0" eb="2">
       <t>シボウ</t>
@@ -110,17 +146,65 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>衝突判定システムの作成</t>
+    <t>衝突判定システム</t>
     <rPh sb="0" eb="4">
       <t>ショウトツハンテイ</t>
     </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手裏剣</t>
+    <rPh sb="0" eb="3">
+      <t>シュリケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣攻撃</t>
+    <rPh sb="0" eb="3">
+      <t>ケンコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突判定　キャラクター</t>
+    <rPh sb="0" eb="4">
+      <t>ショウトツハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　マップ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -131,13 +215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>衝突判定　キャラクター</t>
-    <rPh sb="0" eb="4">
-      <t>ショウトツハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回復アイテム</t>
     <rPh sb="0" eb="2">
       <t>カイフク</t>
@@ -156,6 +233,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>共通システム</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー攻撃</t>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵攻撃</t>
+    <rPh sb="0" eb="3">
+      <t>テキコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>キャラクター移動</t>
     <rPh sb="6" eb="8">
       <t>イドウ</t>
@@ -163,6 +261,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>キャラクターステップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>フィールド</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,11 +290,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>敵配置</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>HPゲージ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ミニマップ</t>
+    <t>マップ表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -221,11 +340,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デバッグ</t>
+    <t>作業工程</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -234,13 +349,6 @@
   </si>
   <si>
     <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>歩き　</t>
-    <rPh sb="0" eb="1">
-      <t>アル</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -251,11 +359,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切り</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ切り</t>
+    <rPh sb="4" eb="5">
+      <t>キリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ダメージ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モブ</t>
+    <t>ボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩き</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -288,10 +421,6 @@
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HPゲージ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -309,43 +438,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップ表示</t>
+    <t>エリア表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイコン（プレイヤー、家、会社）</t>
-    <rPh sb="11" eb="12">
-      <t>イエ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>持ち物</t>
-    <rPh sb="0" eb="1">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セーブ（できれば）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッセージウィンドウ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -481,12 +577,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -511,6 +604,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,596 +894,860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C73" sqref="C73:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.296875" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" customWidth="1"/>
-    <col min="5" max="5" width="31.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" customWidth="1"/>
-    <col min="8" max="8" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="2" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="5"/>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="9" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="9" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="2" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2" t="s">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="4"/>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="2"/>
+      <c r="B42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="9" t="s">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="4"/>
-      <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="4"/>
-      <c r="B33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="9" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="3"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="3"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="4"/>
-      <c r="B35" s="3" t="s">
+      <c r="D73" s="1"/>
+      <c r="E73" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D22:D26"/>
+  <mergeCells count="21">
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A42:A75"/>
+    <mergeCell ref="B42:B66"/>
+    <mergeCell ref="C42:C61"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B3:B36"/>
+    <mergeCell ref="A3:A41"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A22:A42"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="C4:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D4:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/作業工程.xlsx
+++ b/作業工程.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milla\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milla\Documents\GC1\kozinseisaku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>作業工程</t>
     <rPh sb="0" eb="4">
@@ -441,6 +441,23 @@
     <t>エリア表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離武器</t>
+    <rPh sb="0" eb="5">
+      <t>エンキョリブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾とか矢</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -474,7 +491,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -571,26 +588,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -602,8 +625,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73:C74"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -912,33 +941,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,12 +982,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -962,10 +997,10 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
@@ -973,10 +1008,10 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,10 +1019,10 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
@@ -995,10 +1030,10 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1006,10 +1041,10 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,10 +1052,10 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1028,10 +1063,10 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1039,10 +1074,10 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1050,10 +1085,10 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1061,10 +1096,10 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1072,10 +1107,10 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1083,10 +1118,10 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1094,10 +1129,10 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1105,10 +1140,10 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1116,9 +1151,9 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1129,10 +1164,10 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1142,10 +1177,10 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1153,10 +1188,10 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1166,10 +1201,10 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1177,10 +1212,10 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -1190,9 +1225,9 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
         <v>27</v>
@@ -1201,9 +1236,9 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>28</v>
@@ -1212,8 +1247,8 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1227,9 +1262,9 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="1"/>
@@ -1240,9 +1275,9 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>34</v>
@@ -1251,9 +1286,9 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>35</v>
@@ -1262,9 +1297,9 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>36</v>
@@ -1273,9 +1308,9 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>37</v>
@@ -1284,9 +1319,9 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="1"/>
@@ -1297,9 +1332,9 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>40</v>
@@ -1308,9 +1343,9 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>41</v>
@@ -1319,9 +1354,9 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>42</v>
@@ -1330,7 +1365,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="3"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1378,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="3"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1354,7 +1389,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="3"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
@@ -1367,7 +1402,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="3"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1378,7 +1413,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="4"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1391,339 +1426,339 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="2"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="3"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="8" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="3"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="8" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="3"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="8" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="3"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="8" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="3"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="8" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="3"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="8" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="3"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="8" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="3"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="8" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="3"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="2" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="3"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="8" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="3"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="8" t="s">
+      <c r="A53" s="8"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="3"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="8" t="s">
+      <c r="A54" s="8"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="3"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="8" t="s">
+      <c r="A55" s="8"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="3"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="8" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="3"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="2" t="s">
+      <c r="A57" s="8"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="3"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="8" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="3"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="8" t="s">
+      <c r="A59" s="8"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="3"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="8" t="s">
+      <c r="A60" s="8"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="3"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="8" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="3"/>
-      <c r="B62" s="10"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="8" t="s">
-        <v>22</v>
+      <c r="E62" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="3"/>
-      <c r="B63" s="10"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="3"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="2" t="s">
+      <c r="A64" s="8"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D64" s="1"/>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="3"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="8"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="3"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="3"/>
-      <c r="B67" s="2" t="s">
+      <c r="A67" s="8"/>
+      <c r="B67" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="3"/>
-      <c r="B71" s="2" t="s">
+      <c r="A71" s="8"/>
+      <c r="B71" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="3"/>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="8"/>
+      <c r="B73" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="2" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="A42:A75"/>
     <mergeCell ref="B42:B66"/>
@@ -1735,6 +1770,8 @@
     <mergeCell ref="B67:B70"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B75"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:B36"/>
     <mergeCell ref="A3:A41"/>
     <mergeCell ref="C3:E3"/>

--- a/作業工程.xlsx
+++ b/作業工程.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>作業工程</t>
     <rPh sb="0" eb="4">
@@ -459,6 +459,41 @@
     <rPh sb="3" eb="4">
       <t>ヤ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -491,7 +526,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -577,19 +612,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -603,35 +625,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -642,6 +649,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -940,825 +974,1024 @@
     <col min="7" max="7" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7" t="s">
+      <c r="H3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1" t="s">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1" t="s">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="1" t="s">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="1" t="s">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="1" t="s">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="1" t="s">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="1" t="s">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="1" t="s">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="1" t="s">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7" t="s">
+      <c r="H19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7" t="s">
+      <c r="H21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="1" t="s">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7" t="s">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7" t="s">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="13" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="H29" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="H30" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="13" t="s">
         <v>36</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
+      <c r="H31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="13" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="7" t="s">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="13" t="s">
         <v>39</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="H33" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="H34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="13" t="s">
         <v>42</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="8"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="8"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="4"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="8"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="8"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="4"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="13" t="s">
         <v>48</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="9"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
       <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="7"/>
-      <c r="B42" s="10" t="s">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="2"/>
+      <c r="B42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="8"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="2" t="s">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="4"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="8"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="2" t="s">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="4"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="8"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="2" t="s">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="4"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="8"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="2" t="s">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="4"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="8"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="2" t="s">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="4"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="8"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="2" t="s">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="4"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="8"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="2" t="s">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="4"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="8"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="2" t="s">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="4"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="8"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="7" t="s">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="4"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="8"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="2" t="s">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="4"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="8"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="2" t="s">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="4"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="8"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="2" t="s">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="4"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="8"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="2" t="s">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="4"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="8"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="2" t="s">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="4"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="8"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="7" t="s">
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="4"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="8"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="2" t="s">
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="4"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="8"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="2" t="s">
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="4"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="8"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="2" t="s">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="4"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="8"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="2" t="s">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="4"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="8"/>
-      <c r="B62" s="11"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="4"/>
+      <c r="B62" s="6"/>
       <c r="C62" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="8"/>
-      <c r="B63" s="11"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="4"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="8"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="7" t="s">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="4"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D64" s="1"/>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="8"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="8"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="4"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="8"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="9"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="4"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="8"/>
-      <c r="B67" s="7" t="s">
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="4"/>
+      <c r="B67" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="4"/>
+      <c r="B70" s="3"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="8"/>
-      <c r="B71" s="7" t="s">
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="4"/>
+      <c r="B71" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="8"/>
-      <c r="B72" s="9"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="4"/>
+      <c r="B72" s="3"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="8"/>
-      <c r="B73" s="7" t="s">
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="4"/>
+      <c r="B73" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="3"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="14" t="s">
         <v>70</v>
       </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:B36"/>
+    <mergeCell ref="A3:A41"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D4:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="A42:A75"/>
     <mergeCell ref="B42:B66"/>
@@ -1770,18 +2003,6 @@
     <mergeCell ref="B67:B70"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="B73:B75"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:B36"/>
-    <mergeCell ref="A3:A41"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D4:D18"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
